--- a/processed/table_with_error_cells(20250713-0726).xlsx
+++ b/processed/table_with_error_cells(20250713-0726).xlsx
@@ -1436,7 +1436,7 @@
 </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30

--- a/processed/table_with_error_cells(20250713-0726).xlsx
+++ b/processed/table_with_error_cells(20250713-0726).xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,8 +38,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CEEB"/>
+        <bgColor rgb="0087CEEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8C00"/>
+        <bgColor rgb="00FF8C00"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,12 +73,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -141,6 +155,184 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>系统检测</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误</t>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: odd_time_count
+打卡次数为奇数，无法配对计算工时</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +801,7 @@
 </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:12  
 10:49
@@ -620,7 +812,7 @@
 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">09:42  
 10:50
@@ -629,7 +821,7 @@
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -637,7 +829,7 @@
 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:26  
 11:09
@@ -648,7 +840,7 @@
 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>14:48  
 15:16</t>
@@ -694,7 +886,7 @@
 </t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:00  
 10:32
@@ -703,7 +895,7 @@
 </t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>13:41  
 14:07</t>
@@ -759,7 +951,7 @@
 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>09:44 
 13:40</t>
@@ -809,7 +1001,7 @@
 </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>09:32 
 13:30</t>
@@ -1229,7 +1421,7 @@
           <t>Xubin</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">09:06
 09:06
@@ -1436,7 +1628,7 @@
 </t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30
@@ -4330,5 +4522,6 @@
     <row r="196"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>